--- a/example/edges.xlsx
+++ b/example/edges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtns\Documents\GitHub\teamRocket\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtns\Documents\GitHub\hrgraphsign\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7AE06-E01A-4D0C-93D4-88CA51510C09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF186D7-81FC-4777-8388-A191A06D97E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="14265" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(E2,F2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(F2/10,F2/5) + RANDBETWEEN(F2/10-1,F2/5) + RANDBETWEEN(F2/10-1,F2/5) + RANDBETWEEN(F2/10-1,F2/5) + RANDBETWEEN(F2/10-1,F2/5) + RANDBETWEEN(F2/10-1,F2/5)</f>
@@ -424,11 +424,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B33" ca="1" si="0">RANDBETWEEN(E3,F3)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C52" ca="1" si="1">RANDBETWEEN(F3/10,F3/5) + RANDBETWEEN(F3/10-1,F3/5) + RANDBETWEEN(F3/10-1,F3/5) + RANDBETWEEN(F3/10-1,F3/5) + RANDBETWEEN(F3/10-1,F3/5) + RANDBETWEEN(F3/10-1,F3/5)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -446,11 +446,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -472,7 +472,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -490,11 +490,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -512,11 +512,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -534,11 +534,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -556,11 +556,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -578,11 +578,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -622,11 +622,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -644,11 +644,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -710,11 +710,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -732,11 +732,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -754,11 +754,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -776,11 +776,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -798,11 +798,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -820,11 +820,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -842,11 +842,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -864,11 +864,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -886,11 +886,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -908,7 +908,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
@@ -930,11 +930,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -952,11 +952,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -974,11 +974,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -996,11 +996,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1040,11 +1040,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
@@ -1084,11 +1084,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1106,11 +1106,11 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B48" ca="1" si="2">RANDBETWEEN(E34,F34)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <f t="shared" ref="C34:C51" ca="1" si="3">RANDBETWEEN(F34/10-1,F34/5) + RANDBETWEEN(F34/10-1,F34/5) + RANDBETWEEN(F34/10-1,F34/5) + RANDBETWEEN(F34/10-1,F34/5) + RANDBETWEEN(F34/10-1,F34/5) + RANDBETWEEN(F34/10-1,F34/5)</f>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1150,11 +1150,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1194,11 +1194,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1219,8 +1219,8 @@
         <v>22</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1260,11 +1260,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1307,8 +1307,8 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1326,11 +1326,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -1370,11 +1370,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1392,11 +1392,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -1435,12 +1435,12 @@
         <v>44339</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B52" ca="1" si="3">RANDBETWEEN(E49,F49)</f>
-        <v>24</v>
+        <f t="shared" ref="B49:B52" ca="1" si="4">RANDBETWEEN(E49,F49)</f>
+        <v>29</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1457,11 +1457,11 @@
         <v>44340</v>
       </c>
       <c r="B50">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="D50" t="s">
@@ -1479,12 +1479,12 @@
         <v>44341</v>
       </c>
       <c r="B51">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(F51/10-1,F51/5) + RANDBETWEEN(F51/10-1,F51/5) + RANDBETWEEN(F51/10-1,F51/5) + RANDBETWEEN(F51/10-1,F51/5) + RANDBETWEEN(F51/10-1,F51/5) + RANDBETWEEN(F51/10-1,F51/5)</f>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -1501,46 +1501,198 @@
         <v>44342</v>
       </c>
       <c r="B52">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <f ca="1">RANDBETWEEN(F52/10-1,F52/5) + RANDBETWEEN(F52/10-1,F52/5) + RANDBETWEEN(F52/10-1,F52/5) + RANDBETWEEN(F52/10-1,F52/5) + RANDBETWEEN(F52/10-1,F52/5) + RANDBETWEEN(F52/10-1,F52/5)</f>
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B59" ca="1" si="5">RANDBETWEEN(E53,F53)</f>
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C59" ca="1" si="6">RANDBETWEEN(F53/10-1,F53/5) + RANDBETWEEN(F53/10-1,F53/5) + RANDBETWEEN(F53/10-1,F53/5) + RANDBETWEEN(F53/10-1,F53/5) + RANDBETWEEN(F53/10-1,F53/5) + RANDBETWEEN(F53/10-1,F53/5)</f>
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>21</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>21</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="6"/>
         <v>28</v>
       </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>21</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <f ca="1">RANDBETWEEN(F58/10-1,F58/5) + RANDBETWEEN(F58/10-2,F58/5) + RANDBETWEEN(F58/10-2,F58/5) + RANDBETWEEN(F58/10-2,F58/5) + RANDBETWEEN(F58/10-2,F58/5) + RANDBETWEEN(F58/10-2,F58/5)</f>
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>21</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:B67" ca="1" si="7">RANDBETWEEN(E59,F59)</f>
         <v>26</v>
       </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>21</v>
-      </c>
-      <c r="F52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="C59">
+        <f t="shared" ref="C59:C67" ca="1" si="8">RANDBETWEEN(F59/10-1,F59/5) + RANDBETWEEN(F59/10-1,F59/5) + RANDBETWEEN(F59/10-1,F59/5) + RANDBETWEEN(F59/10-1,F59/5) + RANDBETWEEN(F59/10-1,F59/5) + RANDBETWEEN(F59/10-1,F59/5)</f>
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>21</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
